--- a/src/test/resources/files/user_position_test.xlsx
+++ b/src/test/resources/files/user_position_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\test\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C6C655-1C8C-4F0A-852D-D44CF7A94AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Посада</t>
   </si>
@@ -85,12 +84,15 @@
   </si>
   <si>
     <t>up9</t>
+  </si>
+  <si>
+    <t>up5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +202,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -475,7 +477,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6">
         <v>1026</v>
@@ -494,7 +496,7 @@
       </c>
       <c r="G3" s="6" t="str">
         <f t="shared" ref="G3:G10" si="0">A3</f>
-        <v>up1</v>
+        <v>up5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,8 +668,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G9">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/src/test/resources/files/user_position_test.xlsx
+++ b/src/test/resources/files/user_position_test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\courses\prog.academy\final_project\medsalary\src\test\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\med_salary_project\med_salary\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D1E9D0-D01F-4A86-AE51-E2E5F45D4138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uq15pQH3o+54JM6IFfgBfPPv9/4B7A/INg32WV1n4q0="/>
     </ext>
@@ -92,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +197,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,18 +409,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="7" width="8.7109375" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,8 +665,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1">
-    <sortState ref="A2:G9">
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
